--- a/raw_data_figures.xlsx
+++ b/raw_data_figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shagu\Documents\1 My Stuff\Boston\Northeastern\Classes\Fall 2019 Semester\CS 6140\Final Project\MLFall2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650CB54C-211B-4C9A-B78D-9136CEB86225}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B8EA9C-6F8B-47AF-BA41-DF4C6656612D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{26CA9492-8C94-4171-A84D-186E4290198C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{26CA9492-8C94-4171-A84D-186E4290198C}"/>
   </bookViews>
   <sheets>
     <sheet name="EBIT" sheetId="1" r:id="rId1"/>
@@ -2940,125 +2940,125 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>FCF!$C$4:$C$46</c:f>
+              <c:f>FCF!$C$4:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>-0.32613015224837699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.248640686724168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1518362145041102E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.165594806036402</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.32613015224837699</c:v>
+                  <c:v>-0.62523798743799497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.248640686724168</c:v>
+                  <c:v>-1.4407752903655801E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1518362145041102E-2</c:v>
+                  <c:v>-0.210947167641656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.165594806036402</c:v>
+                  <c:v>0.20811165705854601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.62523798743799497</c:v>
+                  <c:v>-0.38101852366135802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4407752903655801E-2</c:v>
+                  <c:v>-2.9387547837841501E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.210947167641656</c:v>
+                  <c:v>0.13997048461356601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20811165705854601</c:v>
+                  <c:v>4.1644462226016497E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.38101852366135802</c:v>
+                  <c:v>-0.90842744405093401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.9387547837841501E-2</c:v>
+                  <c:v>0.339062846859147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13997048461356601</c:v>
+                  <c:v>-8.4759042831010906E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1644462226016497E-2</c:v>
+                  <c:v>0.14387499256633601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.90842744405093401</c:v>
+                  <c:v>-1.19905048311241</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.339062846859147</c:v>
+                  <c:v>3.4060706394674303E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.4759042831010906E-3</c:v>
+                  <c:v>0.47759779249109002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14387499256633601</c:v>
+                  <c:v>6.9501624735203896E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.19905048311241</c:v>
+                  <c:v>-0.48475078782966702</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4060706394674303E-2</c:v>
+                  <c:v>9.8827917640588302E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.47759779249109002</c:v>
+                  <c:v>-0.27634767585055697</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.9501624735203896E-2</c:v>
+                  <c:v>-0.106539123250752</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.48475078782966702</c:v>
+                  <c:v>-2.2142600941783699</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.8827917640588302E-3</c:v>
+                  <c:v>0.43716360917249802</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.27634767585055697</c:v>
+                  <c:v>-0.91372105579459395</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.106539123250752</c:v>
+                  <c:v>0.30628750606329702</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.2142600941783699</c:v>
+                  <c:v>-1.56956576182289</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.43716360917249802</c:v>
+                  <c:v>0.96832686413204605</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.91372105579459395</c:v>
+                  <c:v>-3.0100871406136102E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.30628750606329702</c:v>
+                  <c:v>-5.5067196296445603E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.56956576182289</c:v>
+                  <c:v>-1.64048514184964</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.96832686413204605</c:v>
+                  <c:v>0.142823778886744</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.0100871406136102E-2</c:v>
+                  <c:v>1.60701426117557</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-5.5067196296445603E-2</c:v>
+                  <c:v>1.2353351387484</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.64048514184964</c:v>
+                  <c:v>-0.84456621301572199</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.142823778886744</c:v>
+                  <c:v>2.9510660372253099</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.60701426117557</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.2353351387484</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.84456621301572199</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.9510660372253099</c:v>
-                </c:pt>
-                <c:pt idx="42">
                   <c:v>2.7633493087267502</c:v>
                 </c:pt>
               </c:numCache>
@@ -3270,95 +3270,95 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>FCF!$E$4:$E$46</c:f>
+              <c:f>FCF!$E$4:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-0.83998621161628595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.73849669259805995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.46941325910741799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3107590533328899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.83305988521841201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.58479890158916203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.52144764842701397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.23500416963397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.49943700031326699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.53903877865090399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23284088847957399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.841754018772229</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.47736839130916098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12600447732574999</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.83998621161628595</c:v>
+                  <c:v>1.14730434589265</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.73849669259805995</c:v>
+                  <c:v>-0.986656244669182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.46941325910741799</c:v>
+                  <c:v>-5.6065169513770698E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3107590533328899</c:v>
+                  <c:v>0.42577820226136698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.83305988521841201</c:v>
+                  <c:v>1.4724794310280001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.58479890158916203</c:v>
+                  <c:v>-1.0318802293716201</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.52144764842701397</c:v>
+                  <c:v>0.86745467701786905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.23500416963397</c:v>
+                  <c:v>0.45903326310471698</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.49943700031326699</c:v>
+                  <c:v>1.26877588186207</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.53903877865090399</c:v>
+                  <c:v>-0.64539701245926795</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23284088847957399</c:v>
+                  <c:v>0.16024487330519999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.841754018772229</c:v>
+                  <c:v>2.1500712197673302</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.47736839130916098</c:v>
+                  <c:v>1.38842164978518</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.12600447732574999</c:v>
+                  <c:v>-0.334248462790741</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.14730434589265</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.986656244669182</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-5.6065169513770698E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.42577820226136698</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.4724794310280001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.0318802293716201</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.86745467701786905</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.45903326310471698</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.26877588186207</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.64539701245926795</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.16024487330519999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.1500712197673302</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.38842164978518</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.334248462790741</c:v>
-                </c:pt>
-                <c:pt idx="42">
                   <c:v>2.2464022195436302</c:v>
                 </c:pt>
               </c:numCache>
@@ -5354,16 +5354,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>130174</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5395,16 +5395,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5436,16 +5436,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282574</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>488949</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5770,20 +5770,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F372BF1-8688-425F-B14A-463D8A273C9F}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-1.46938416205769</v>
       </c>
@@ -5816,11 +5816,8 @@
       <c r="E4">
         <v>1.2359383789618399</v>
       </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-1.3156352491857599</v>
       </c>
@@ -5836,11 +5833,8 @@
       <c r="E5">
         <v>1.5797256371968</v>
       </c>
-      <c r="F5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-2.2359310129541701</v>
       </c>
@@ -5856,11 +5850,8 @@
       <c r="E6">
         <v>1.5123715339419499</v>
       </c>
-      <c r="F6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-1.2470087203476099</v>
       </c>
@@ -5876,11 +5867,8 @@
       <c r="E7">
         <v>1.41698356068373</v>
       </c>
-      <c r="F7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-1.56501070615003</v>
       </c>
@@ -5896,11 +5884,8 @@
       <c r="E8">
         <v>1.03536547197197</v>
       </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-1.0753074794523501</v>
       </c>
@@ -5916,11 +5901,8 @@
       <c r="E9">
         <v>0.78365640305150897</v>
       </c>
-      <c r="F9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>-1.32560623615561</v>
       </c>
@@ -5936,11 +5918,8 @@
       <c r="E10">
         <v>0.64514194500652</v>
       </c>
-      <c r="F10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-0.92542407147352901</v>
       </c>
@@ -5956,11 +5935,8 @@
       <c r="E11">
         <v>0.32607877283120701</v>
       </c>
-      <c r="F11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>-1.1321944471727501</v>
       </c>
@@ -5976,11 +5952,8 @@
       <c r="E12">
         <v>0.63087677620905502</v>
       </c>
-      <c r="F12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>-0.56423831654148404</v>
       </c>
@@ -5996,11 +5969,8 @@
       <c r="E13">
         <v>0.65927472244623597</v>
       </c>
-      <c r="F13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>-0.63323871675280896</v>
       </c>
@@ -6016,11 +5986,8 @@
       <c r="E14">
         <v>0.59357551116324903</v>
       </c>
-      <c r="F14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-0.44104282249663301</v>
       </c>
@@ -6036,11 +6003,8 @@
       <c r="E15">
         <v>0.23681389986888099</v>
       </c>
-      <c r="F15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>-0.74996135945857501</v>
       </c>
@@ -6056,11 +6020,8 @@
       <c r="E16">
         <v>5.5537033270936002E-2</v>
       </c>
-      <c r="F16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>-0.217292184344344</v>
       </c>
@@ -6076,11 +6037,8 @@
       <c r="E17">
         <v>-4.5411377012747098E-2</v>
       </c>
-      <c r="F17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>-0.55823361718272502</v>
       </c>
@@ -6096,11 +6054,8 @@
       <c r="E18">
         <v>-3.0219468711038699E-2</v>
       </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>-0.25808317668563202</v>
       </c>
@@ -6116,11 +6071,8 @@
       <c r="E19">
         <v>-0.97691697013536305</v>
       </c>
-      <c r="F19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.11872389953435999</v>
       </c>
@@ -6136,11 +6088,8 @@
       <c r="E20">
         <v>-1.1390632855385601</v>
       </c>
-      <c r="F20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>7.5400335021727993E-2</v>
       </c>
@@ -6156,11 +6105,8 @@
       <c r="E21">
         <v>-0.99134762813001498</v>
       </c>
-      <c r="F21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>-0.49527042688434902</v>
       </c>
@@ -6176,11 +6122,8 @@
       <c r="E22">
         <v>0.55309685353146298</v>
       </c>
-      <c r="F22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>-0.116194113981945</v>
       </c>
@@ -6196,11 +6139,8 @@
       <c r="E23">
         <v>-7.0069267393515697E-2</v>
       </c>
-      <c r="F23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>-0.51929247537480705</v>
       </c>
@@ -6216,11 +6156,8 @@
       <c r="E24">
         <v>-0.17300354804343501</v>
       </c>
-      <c r="F24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.170926096396084</v>
       </c>
@@ -6236,11 +6173,8 @@
       <c r="E25">
         <v>-0.32624654463801001</v>
       </c>
-      <c r="F25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>-9.40999413549123E-2</v>
       </c>
@@ -6256,11 +6190,8 @@
       <c r="E26">
         <v>0.114583578827031</v>
       </c>
-      <c r="F26">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.230634980220113</v>
       </c>
@@ -6276,11 +6207,8 @@
       <c r="E27">
         <v>-0.291096639155626</v>
       </c>
-      <c r="F27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>-0.34713608672090301</v>
       </c>
@@ -6296,11 +6224,8 @@
       <c r="E28">
         <v>-2.56720195941746</v>
       </c>
-      <c r="F28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5.33581792813973E-2</v>
       </c>
@@ -6316,11 +6241,8 @@
       <c r="E29">
         <v>-0.87904665891934697</v>
       </c>
-      <c r="F29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>-9.2263095043218002E-2</v>
       </c>
@@ -6336,11 +6258,8 @@
       <c r="E30">
         <v>-1.24682985074632</v>
       </c>
-      <c r="F30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.38836318492481497</v>
       </c>
@@ -6356,11 +6275,8 @@
       <c r="E31">
         <v>-1.4572659138885</v>
       </c>
-      <c r="F31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.5950379184357399</v>
       </c>
@@ -6376,11 +6292,8 @@
       <c r="E32">
         <v>-1.1853009672324299</v>
       </c>
-      <c r="F32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.58910285282193298</v>
       </c>
@@ -6393,11 +6306,8 @@
       <c r="D33">
         <v>1.0109999328375101</v>
       </c>
-      <c r="F33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1.09929423076969</v>
       </c>
@@ -6410,11 +6320,8 @@
       <c r="D34">
         <v>-0.70271295780186005</v>
       </c>
-      <c r="F34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.70131953271706504</v>
       </c>
@@ -6427,11 +6334,8 @@
       <c r="D35">
         <v>-0.247036043585873</v>
       </c>
-      <c r="F35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3.5288813262996398E-2</v>
       </c>
@@ -6444,11 +6348,8 @@
       <c r="D36">
         <v>-0.231277764131717</v>
       </c>
-      <c r="F36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>-0.71684285790595703</v>
       </c>
@@ -6461,11 +6362,8 @@
       <c r="D37">
         <v>1.2053520461054199</v>
       </c>
-      <c r="F37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.59498401207477403</v>
       </c>
@@ -6478,11 +6376,8 @@
       <c r="D38">
         <v>-0.35471761985593298</v>
       </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1.20540542858808</v>
       </c>
@@ -6495,11 +6390,8 @@
       <c r="D39">
         <v>2.3481087043790701E-2</v>
       </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.42141666536905498</v>
       </c>
@@ -6512,11 +6404,8 @@
       <c r="D40">
         <v>0.66825735470963998</v>
       </c>
-      <c r="F40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.75589688950887</v>
       </c>
@@ -6529,11 +6418,8 @@
       <c r="D41">
         <v>1.79103476581819</v>
       </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.23457064675128</v>
       </c>
@@ -6546,11 +6432,8 @@
       <c r="D42">
         <v>-0.335019770538239</v>
       </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.7399959774548901</v>
       </c>
@@ -6560,11 +6443,8 @@
       <c r="D43">
         <v>-4.0865220727342902E-2</v>
       </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.98320554387062198</v>
       </c>
@@ -6574,11 +6454,8 @@
       <c r="D44">
         <v>0.358344525444588</v>
       </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.0395384705886501</v>
       </c>
@@ -6588,11 +6465,8 @@
       <c r="D45">
         <v>1.4010173493278499</v>
       </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.5928434560279601</v>
       </c>
@@ -6601,9 +6475,6 @@
       </c>
       <c r="D46">
         <v>-0.45714643630794199</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6618,20 +6489,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4816BE40-B378-439F-B87D-F7989DBBAF1A}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6648,7 +6519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-1.5776127994254101</v>
       </c>
@@ -6664,11 +6535,8 @@
       <c r="E4">
         <v>-1.2676883623463999</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-1.6533188029478401</v>
       </c>
@@ -6684,11 +6552,8 @@
       <c r="E5">
         <v>-1.2337890131781699</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-1.67340735933733</v>
       </c>
@@ -6704,11 +6569,8 @@
       <c r="E6">
         <v>-1.1952242665567101</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-1.52085675515926</v>
       </c>
@@ -6724,11 +6586,8 @@
       <c r="E7">
         <v>-1.13463122698064</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-1.6530196692983601</v>
       </c>
@@ -6744,11 +6603,8 @@
       <c r="E8">
         <v>-1.0572541820361301</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-1.3773935163751001</v>
       </c>
@@ -6764,11 +6620,8 @@
       <c r="E9">
         <v>-1.0039582049256599</v>
       </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>-1.4670844903273601</v>
       </c>
@@ -6784,11 +6637,8 @@
       <c r="E10">
         <v>-0.93589672093672605</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-1.06081691146956</v>
       </c>
@@ -6804,11 +6654,8 @@
       <c r="E11">
         <v>-0.832903787608267</v>
       </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>-1.04941834503645</v>
       </c>
@@ -6824,11 +6671,8 @@
       <c r="E12">
         <v>-0.72516167009681798</v>
       </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>-0.60351272372381404</v>
       </c>
@@ -6844,11 +6688,8 @@
       <c r="E13">
         <v>-0.68249518220424998</v>
       </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>-0.62258296619493902</v>
       </c>
@@ -6864,11 +6705,8 @@
       <c r="E14">
         <v>-0.588486471399987</v>
       </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-0.36121257837368398</v>
       </c>
@@ -6884,11 +6722,8 @@
       <c r="E15">
         <v>-0.46760887975290699</v>
       </c>
-      <c r="F15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>-0.56857832174902101</v>
       </c>
@@ -6904,11 +6739,8 @@
       <c r="E16">
         <v>-0.38165131198219698</v>
       </c>
-      <c r="F16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>-0.32866557779932798</v>
       </c>
@@ -6924,11 +6756,8 @@
       <c r="E17">
         <v>-0.31248536655535197</v>
       </c>
-      <c r="F17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>-0.55067375587832001</v>
       </c>
@@ -6944,11 +6773,8 @@
       <c r="E18">
         <v>-0.22868721132013101</v>
       </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>-0.31150727166471698</v>
       </c>
@@ -6964,11 +6790,8 @@
       <c r="E19">
         <v>-0.105699717477882</v>
       </c>
-      <c r="F19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>-0.42153555525183301</v>
       </c>
@@ -6984,11 +6807,8 @@
       <c r="E20">
         <v>1.56348926952261E-2</v>
       </c>
-      <c r="F20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>-0.28638067486280899</v>
       </c>
@@ -7004,11 +6824,8 @@
       <c r="E21">
         <v>0.11880682494637999</v>
       </c>
-      <c r="F21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>-0.40158869374894601</v>
       </c>
@@ -7024,11 +6841,8 @@
       <c r="E22">
         <v>0.28329160095210498</v>
       </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>-0.22859372157726399</v>
       </c>
@@ -7044,11 +6858,8 @@
       <c r="E23">
         <v>0.45642164407522101</v>
       </c>
-      <c r="F23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>-0.37483103136351498</v>
       </c>
@@ -7064,11 +6875,8 @@
       <c r="E24">
         <v>0.570939061235057</v>
       </c>
-      <c r="F24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4.8803302550960402E-2</v>
       </c>
@@ -7084,11 +6892,8 @@
       <c r="E25">
         <v>0.67411480197392804</v>
       </c>
-      <c r="F25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6.5894224895054296E-2</v>
       </c>
@@ -7104,11 +6909,8 @@
       <c r="E26">
         <v>0.81184114328062795</v>
       </c>
-      <c r="F26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.11371656399987699</v>
       </c>
@@ -7124,11 +6926,8 @@
       <c r="E27">
         <v>1.0139842458311801</v>
       </c>
-      <c r="F27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>-0.14553280880774599</v>
       </c>
@@ -7144,11 +6943,8 @@
       <c r="E28">
         <v>1.28617305447118</v>
       </c>
-      <c r="F28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7.0772937279434595E-2</v>
       </c>
@@ -7164,11 +6960,8 @@
       <c r="E29">
         <v>1.4592269278399601</v>
       </c>
-      <c r="F29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.12710137786558301</v>
       </c>
@@ -7184,11 +6977,8 @@
       <c r="E30">
         <v>1.5979587099039201</v>
       </c>
-      <c r="F30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.191004512211809</v>
       </c>
@@ -7204,11 +6994,8 @@
       <c r="E31">
         <v>1.8367394642911701</v>
       </c>
-      <c r="F31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.14759486675321701</v>
       </c>
@@ -7224,11 +7011,8 @@
       <c r="E32">
         <v>2.0284892038622799</v>
       </c>
-      <c r="F32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.50780908844600803</v>
       </c>
@@ -7241,11 +7025,8 @@
       <c r="D33">
         <v>1.0613643859406801</v>
       </c>
-      <c r="F33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.50562761694742797</v>
       </c>
@@ -7258,11 +7039,8 @@
       <c r="D34">
         <v>-0.38732009512462101</v>
       </c>
-      <c r="F34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.53083230337572995</v>
       </c>
@@ -7275,11 +7053,8 @@
       <c r="D35">
         <v>-6.8450074279831394E-2</v>
       </c>
-      <c r="F35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.37753669897167302</v>
       </c>
@@ -7292,11 +7067,8 @@
       <c r="D36">
         <v>5.47497065011101E-2</v>
       </c>
-      <c r="F36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.751992201400281</v>
       </c>
@@ -7309,11 +7081,8 @@
       <c r="D37">
         <v>1.2780510591965699</v>
       </c>
-      <c r="F37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.93091757689243704</v>
       </c>
@@ -7326,11 +7095,8 @@
       <c r="D38">
         <v>4.1705023830186899E-2</v>
       </c>
-      <c r="F38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1.19137607939904</v>
       </c>
@@ -7343,11 +7109,8 @@
       <c r="D39">
         <v>0.35622681711800203</v>
       </c>
-      <c r="F39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1.1997763820317</v>
       </c>
@@ -7360,11 +7123,8 @@
       <c r="D40">
         <v>0.46493250604236203</v>
       </c>
-      <c r="F40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.6853313813901201</v>
       </c>
@@ -7377,11 +7137,8 @@
       <c r="D41">
         <v>1.5382200080222099</v>
       </c>
-      <c r="F41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.5615183894795599</v>
       </c>
@@ -7394,11 +7151,8 @@
       <c r="D42">
         <v>4.6053251387161299E-2</v>
       </c>
-      <c r="F42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.5384044898224201</v>
       </c>
@@ -7408,11 +7162,8 @@
       <c r="D43">
         <v>0.31346924614108701</v>
       </c>
-      <c r="F43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.44304886918143</v>
       </c>
@@ -7422,11 +7173,8 @@
       <c r="D44">
         <v>0.35115388496819899</v>
       </c>
-      <c r="F44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.84959291050686</v>
       </c>
@@ -7436,11 +7184,8 @@
       <c r="D45">
         <v>1.45487897984687</v>
       </c>
-      <c r="F45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.82185975754658</v>
       </c>
@@ -7449,9 +7194,6 @@
       </c>
       <c r="D46">
         <v>6.4170866207888005E-2</v>
-      </c>
-      <c r="F46">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -7466,20 +7208,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34158D1-1D31-4659-A4DF-8C72B969828E}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7496,63 +7238,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-0.68762492116839902</v>
       </c>
       <c r="B4">
         <v>-0.37913967947474603</v>
       </c>
+      <c r="C4">
+        <v>-0.32613015224837699</v>
+      </c>
       <c r="D4">
         <v>-0.51482423045381398</v>
       </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>-0.83998621161628595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-2.8171702474370699E-2</v>
       </c>
       <c r="B5">
         <v>-0.75299694450959398</v>
       </c>
+      <c r="C5">
+        <v>-0.248640686724168</v>
+      </c>
       <c r="D5">
         <v>-0.61779662030940097</v>
       </c>
-      <c r="F5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>-0.73849669259805995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-2.7643980410080499E-2</v>
       </c>
       <c r="B6">
         <v>-1.0296346390415601</v>
       </c>
+      <c r="C6">
+        <v>5.1518362145041102E-2</v>
+      </c>
       <c r="D6">
         <v>0.286776219806605</v>
       </c>
-      <c r="F6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>-0.46941325910741799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-1.3474768631998899</v>
       </c>
       <c r="B7">
         <v>-0.87557253761213605</v>
       </c>
+      <c r="C7">
+        <v>-0.165594806036402</v>
+      </c>
       <c r="D7">
         <v>-1.33807528576079</v>
       </c>
-      <c r="F7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>-1.3107590533328899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-0.62329643918549305</v>
       </c>
@@ -7560,16 +7314,16 @@
         <v>-0.81730069739729405</v>
       </c>
       <c r="C8">
-        <v>-0.32613015224837699</v>
+        <v>-0.62523798743799497</v>
       </c>
       <c r="D8">
         <v>-0.74981250473964101</v>
       </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>-0.83305988521841201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-0.14293701133829601</v>
       </c>
@@ -7577,16 +7331,16 @@
         <v>-0.94163164912179198</v>
       </c>
       <c r="C9">
-        <v>-0.248640686724168</v>
+        <v>-1.4407752903655801E-2</v>
       </c>
       <c r="D9">
         <v>-0.368550630505107</v>
       </c>
-      <c r="F9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>-0.58479890158916203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.27026433907651498</v>
       </c>
@@ -7594,16 +7348,16 @@
         <v>-0.62650117686039297</v>
       </c>
       <c r="C10">
-        <v>5.1518362145041102E-2</v>
+        <v>-0.210947167641656</v>
       </c>
       <c r="D10">
         <v>0.29522523641013998</v>
       </c>
-      <c r="F10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>-0.52144764842701397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-1.6045327936778599</v>
       </c>
@@ -7611,16 +7365,16 @@
         <v>-0.73788114574989505</v>
       </c>
       <c r="C11">
-        <v>-0.165594806036402</v>
+        <v>0.20811165705854601</v>
       </c>
       <c r="D11">
         <v>-1.22348549807534</v>
       </c>
-      <c r="F11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>-1.23500416963397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>-0.78010863176229395</v>
       </c>
@@ -7628,16 +7382,16 @@
         <v>-0.56925677117373696</v>
       </c>
       <c r="C12">
-        <v>-0.62523798743799497</v>
+        <v>-0.38101852366135802</v>
       </c>
       <c r="D12">
         <v>-0.27033081248900898</v>
       </c>
-      <c r="F12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>-0.49943700031326699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.42275591195869799</v>
       </c>
@@ -7645,16 +7399,16 @@
         <v>-0.37154576301733999</v>
       </c>
       <c r="C13">
-        <v>-1.4407752903655801E-2</v>
+        <v>-2.9387547837841501E-2</v>
       </c>
       <c r="D13">
         <v>0.30578650716455902</v>
       </c>
-      <c r="F13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>-0.53903877865090399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.43269886577318201</v>
       </c>
@@ -7662,16 +7416,16 @@
         <v>-0.72101377963956104</v>
       </c>
       <c r="C14">
-        <v>-0.210947167641656</v>
+        <v>0.13997048461356601</v>
       </c>
       <c r="D14">
         <v>1.12006048233028</v>
       </c>
-      <c r="F14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>0.23284088847957399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-0.99521652170768604</v>
       </c>
@@ -7679,16 +7433,16 @@
         <v>-0.10605819744254801</v>
       </c>
       <c r="C15">
-        <v>0.20811165705854601</v>
+        <v>4.1644462226016497E-2</v>
       </c>
       <c r="D15">
         <v>-1.0634822461458899</v>
       </c>
-      <c r="F15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>-0.841754018772229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>-0.36187800630938899</v>
       </c>
@@ -7696,16 +7450,16 @@
         <v>-0.70728179491229004</v>
       </c>
       <c r="C16">
-        <v>-0.38101852366135802</v>
+        <v>-0.90842744405093401</v>
       </c>
       <c r="D16">
         <v>-0.14359556343597801</v>
       </c>
-      <c r="F16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>-0.47736839130916098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.228624555241807</v>
       </c>
@@ -7713,16 +7467,16 @@
         <v>-0.236496887266338</v>
       </c>
       <c r="C17">
-        <v>-2.9387547837841501E-2</v>
+        <v>0.339062846859147</v>
       </c>
       <c r="D17">
         <v>0.36968219522879497</v>
       </c>
-      <c r="F17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>0.12600447732574999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.0167196601283801</v>
       </c>
@@ -7730,19 +7484,16 @@
         <v>-1.00060108325983</v>
       </c>
       <c r="C18">
-        <v>0.13997048461356601</v>
+        <v>-8.4759042831010906E-3</v>
       </c>
       <c r="D18">
         <v>1.26316570105266</v>
       </c>
       <c r="E18">
-        <v>-0.83998621161628595</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.14730434589265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>-1.9835478061755101</v>
       </c>
@@ -7750,19 +7501,16 @@
         <v>-0.219743259295656</v>
       </c>
       <c r="C19">
-        <v>4.1644462226016497E-2</v>
+        <v>0.14387499256633601</v>
       </c>
       <c r="D19">
         <v>-1.35022074712837</v>
       </c>
       <c r="E19">
-        <v>-0.73849669259805995</v>
-      </c>
-      <c r="F19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-0.986656244669182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>-0.74353162912849002</v>
       </c>
@@ -7770,19 +7518,16 @@
         <v>-0.71271847798763699</v>
       </c>
       <c r="C20">
-        <v>-0.90842744405093401</v>
+        <v>-1.19905048311241</v>
       </c>
       <c r="D20">
         <v>-3.2702220514576497E-2</v>
       </c>
       <c r="E20">
-        <v>-0.46941325910741799</v>
-      </c>
-      <c r="F20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-5.6065169513770698E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.72502673384342697</v>
       </c>
@@ -7790,19 +7535,16 @@
         <v>-0.74662002614645995</v>
       </c>
       <c r="C21">
-        <v>0.339062846859147</v>
+        <v>3.4060706394674303E-2</v>
       </c>
       <c r="D21">
         <v>0.65536456913583596</v>
       </c>
       <c r="E21">
-        <v>-1.3107590533328899</v>
-      </c>
-      <c r="F21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.42577820226136698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.31558980082055199</v>
       </c>
@@ -7810,19 +7552,16 @@
         <v>-1.0657389158382999</v>
       </c>
       <c r="C22">
-        <v>-8.4759042831010906E-3</v>
+        <v>0.47759779249109002</v>
       </c>
       <c r="D22">
         <v>1.58370026844928</v>
       </c>
       <c r="E22">
-        <v>-0.83305988521841201</v>
-      </c>
-      <c r="F22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.4724794310280001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>-1.4513560197661699</v>
       </c>
@@ -7830,19 +7569,16 @@
         <v>-0.55242352650529902</v>
       </c>
       <c r="C23">
-        <v>0.14387499256633601</v>
+        <v>6.9501624735203896E-2</v>
       </c>
       <c r="D23">
         <v>-1.11945698114431</v>
       </c>
       <c r="E23">
-        <v>-0.58479890158916203</v>
-      </c>
-      <c r="F23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-1.0318802293716201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>-1.2941199742298</v>
       </c>
@@ -7850,19 +7586,16 @@
         <v>-0.862704962746217</v>
       </c>
       <c r="C24">
-        <v>-1.19905048311241</v>
+        <v>-0.48475078782966702</v>
       </c>
       <c r="D24">
         <v>-0.13725880098332599</v>
       </c>
       <c r="E24">
-        <v>-0.52144764842701397</v>
-      </c>
-      <c r="F24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.86745467701786905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.48780645175020498</v>
       </c>
@@ -7870,19 +7603,16 @@
         <v>-0.415115053046551</v>
       </c>
       <c r="C25">
-        <v>3.4060706394674303E-2</v>
+        <v>9.8827917640588302E-3</v>
       </c>
       <c r="D25">
         <v>0.61364754965587998</v>
       </c>
       <c r="E25">
-        <v>-1.23500416963397</v>
-      </c>
-      <c r="F25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.45903326310471698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.93783107509548802</v>
       </c>
@@ -7890,19 +7620,16 @@
         <v>-0.89578759629954896</v>
       </c>
       <c r="C26">
-        <v>0.47759779249109002</v>
+        <v>-0.27634767585055697</v>
       </c>
       <c r="D26">
         <v>1.7885889210850101</v>
       </c>
       <c r="E26">
-        <v>-0.49943700031326699</v>
-      </c>
-      <c r="F26">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.26877588186207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>-0.27988004936753402</v>
       </c>
@@ -7910,19 +7637,16 @@
         <v>-0.32928067032280101</v>
       </c>
       <c r="C27">
-        <v>6.9501624735203896E-2</v>
+        <v>-0.106539123250752</v>
       </c>
       <c r="D27">
         <v>-1.2160926085472501</v>
       </c>
       <c r="E27">
-        <v>-0.53903877865090399</v>
-      </c>
-      <c r="F27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-0.64539701245926795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>-1.2883384858365701</v>
       </c>
@@ -7930,19 +7654,16 @@
         <v>-1.1463337615954401</v>
       </c>
       <c r="C28">
-        <v>-0.48475078782966702</v>
+        <v>-2.2142600941783699</v>
       </c>
       <c r="D28">
         <v>-0.65740138563847295</v>
       </c>
       <c r="E28">
-        <v>0.23284088847957399</v>
-      </c>
-      <c r="F28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.16024487330519999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.52137795157976496</v>
       </c>
@@ -7950,19 +7671,16 @@
         <v>-5.3367108613278702E-2</v>
       </c>
       <c r="C29">
-        <v>9.8827917640588302E-3</v>
+        <v>0.43716360917249802</v>
       </c>
       <c r="D29">
         <v>0.28836041041976701</v>
       </c>
       <c r="E29">
-        <v>-0.841754018772229</v>
-      </c>
-      <c r="F29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.1500712197673302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.620214430642829</v>
       </c>
@@ -7970,19 +7688,16 @@
         <v>-0.52443257033703705</v>
       </c>
       <c r="C30">
-        <v>-0.27634767585055697</v>
+        <v>-0.91372105579459395</v>
       </c>
       <c r="D30">
         <v>1.1987419494506999</v>
       </c>
       <c r="E30">
-        <v>-0.47736839130916098</v>
-      </c>
-      <c r="F30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.38842164978518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>-0.79059606072247401</v>
       </c>
@@ -7990,19 +7705,16 @@
         <v>-8.38746565238805E-3</v>
       </c>
       <c r="C31">
-        <v>-0.106539123250752</v>
+        <v>0.30628750606329702</v>
       </c>
       <c r="D31">
         <v>-1.49649434707708</v>
       </c>
       <c r="E31">
-        <v>0.12600447732574999</v>
-      </c>
-      <c r="F31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-0.334248462790741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>-1.37295494940219</v>
       </c>
@@ -8010,19 +7722,16 @@
         <v>5.6743596798728797E-3</v>
       </c>
       <c r="C32">
-        <v>-2.2142600941783699</v>
+        <v>-1.56956576182289</v>
       </c>
       <c r="D32">
         <v>-1.7916441458389599E-2</v>
       </c>
       <c r="E32">
-        <v>1.14730434589265</v>
-      </c>
-      <c r="F32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.2464022195436302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.853236390535698</v>
       </c>
@@ -8030,19 +7739,13 @@
         <v>-5.6392543128011598E-2</v>
       </c>
       <c r="C33">
-        <v>0.43716360917249802</v>
+        <v>0.96832686413204605</v>
       </c>
       <c r="D33">
         <v>0.216543769289717</v>
       </c>
-      <c r="E33">
-        <v>-0.986656244669182</v>
-      </c>
-      <c r="F33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1.52007939343793</v>
       </c>
@@ -8050,19 +7753,13 @@
         <v>4.86863328247907E-2</v>
       </c>
       <c r="C34">
-        <v>-0.91372105579459395</v>
+        <v>-3.0100871406136102E-2</v>
       </c>
       <c r="D34">
         <v>1.2864004967123801</v>
       </c>
-      <c r="E34">
-        <v>-5.6065169513770698E-2</v>
-      </c>
-      <c r="F34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.8725198305552401E-2</v>
       </c>
@@ -8070,19 +7767,13 @@
         <v>0.74740247233257195</v>
       </c>
       <c r="C35">
-        <v>0.30628750606329702</v>
+        <v>-5.5067196296445603E-2</v>
       </c>
       <c r="D35">
         <v>-1.48434888570949</v>
       </c>
-      <c r="E35">
-        <v>0.42577820226136698</v>
-      </c>
-      <c r="F35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>-1.5631309035991201</v>
       </c>
@@ -8090,19 +7781,13 @@
         <v>0.94644042545157003</v>
       </c>
       <c r="C36">
-        <v>-1.56956576182289</v>
+        <v>-1.64048514184964</v>
       </c>
       <c r="D36">
         <v>-0.46518625790804302</v>
       </c>
-      <c r="E36">
-        <v>1.4724794310280001</v>
-      </c>
-      <c r="F36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.1208735672297201</v>
       </c>
@@ -8110,19 +7795,13 @@
         <v>0.529639430155596</v>
       </c>
       <c r="C37">
-        <v>0.96832686413204605</v>
+        <v>0.142823778886744</v>
       </c>
       <c r="D37">
         <v>0.423016612538612</v>
       </c>
-      <c r="E37">
-        <v>-1.0318802293716201</v>
-      </c>
-      <c r="F37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.2776438771030001</v>
       </c>
@@ -8130,19 +7809,13 @@
         <v>0.75964827870172802</v>
       </c>
       <c r="C38">
-        <v>-3.0100871406136102E-2</v>
+        <v>1.60701426117557</v>
       </c>
       <c r="D38">
         <v>1.55940934571412</v>
       </c>
-      <c r="E38">
-        <v>0.86745467701786905</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>-0.192683611265386</v>
       </c>
@@ -8150,19 +7823,13 @@
         <v>1.31066407005792</v>
       </c>
       <c r="C39">
-        <v>-5.5067196296445603E-2</v>
+        <v>1.2353351387484</v>
       </c>
       <c r="D39">
         <v>-1.52553784165173</v>
       </c>
-      <c r="E39">
-        <v>0.45903326310471698</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>-0.32501620129168302</v>
       </c>
@@ -8170,19 +7837,13 @@
         <v>1.6857080030164699</v>
       </c>
       <c r="C40">
-        <v>-1.64048514184964</v>
+        <v>-0.84456621301572199</v>
       </c>
       <c r="D40">
         <v>-6.1217651551508399E-2</v>
       </c>
-      <c r="E40">
-        <v>1.26877588186207</v>
-      </c>
-      <c r="F40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.3833390676937001</v>
       </c>
@@ -8190,19 +7851,13 @@
         <v>1.82458606280241</v>
       </c>
       <c r="C41">
-        <v>0.142823778886744</v>
+        <v>2.9510660372253099</v>
       </c>
       <c r="D41">
         <v>0.60308627890146005</v>
       </c>
-      <c r="E41">
-        <v>-0.64539701245926795</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.5750780843858101</v>
       </c>
@@ -8210,101 +7865,59 @@
         <v>1.6754222839206401</v>
       </c>
       <c r="C42">
-        <v>1.60701426117557</v>
+        <v>2.7633493087267502</v>
       </c>
       <c r="D42">
         <v>1.68931297599347</v>
       </c>
-      <c r="E42">
-        <v>0.16024487330519999</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>-5.8256886063334401E-2</v>
       </c>
       <c r="B43">
         <v>2.2580800257279199</v>
       </c>
-      <c r="C43">
-        <v>1.2353351387484</v>
-      </c>
       <c r="D43">
         <v>-1.5920738474045699</v>
       </c>
-      <c r="E43">
-        <v>2.1500712197673302</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.37805701545924703</v>
       </c>
       <c r="B44">
         <v>1.8893788896906101</v>
       </c>
-      <c r="C44">
-        <v>-0.84456621301572199</v>
-      </c>
       <c r="D44">
         <v>-0.38122415541041099</v>
       </c>
-      <c r="E44">
-        <v>1.38842164978518</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.6650739623909101</v>
       </c>
       <c r="B45">
         <v>1.9487350335034599</v>
       </c>
-      <c r="C45">
-        <v>2.9510660372253099</v>
-      </c>
       <c r="D45">
         <v>0.45892493310363802</v>
       </c>
-      <c r="E45">
-        <v>-0.334248462790741</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.4836581944612</v>
       </c>
       <c r="B46">
         <v>1.45275333665336</v>
       </c>
-      <c r="C46">
-        <v>2.7633493087267502</v>
-      </c>
       <c r="D46">
         <v>1.3064669111457801</v>
       </c>
-      <c r="E46">
-        <v>2.2464022195436302</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F46">
-    <sortCondition descending="1" ref="F4:F46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F28">
+    <sortCondition descending="1" ref="F4:F28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
